--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A61B31-587C-4F6A-A681-D04EB43DF2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD2D9F-341A-4207-ACA8-0420891CC18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32835" yWindow="-8295" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32505" yWindow="-10575" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD2D9F-341A-4207-ACA8-0420891CC18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7953C16E-D20D-4EC7-BBBA-3F8AB3A3B6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32505" yWindow="-10575" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7953C16E-D20D-4EC7-BBBA-3F8AB3A3B6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38444221-1EBA-4189-B8BE-CED3B2D66077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38444221-1EBA-4189-B8BE-CED3B2D66077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58855896-0352-48F7-8C23-C0EFCD7881A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58855896-0352-48F7-8C23-C0EFCD7881A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641BBA46-AC18-4603-83F7-A47EA6701592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641BBA46-AC18-4603-83F7-A47EA6701592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE886CA-8855-480F-8A13-326458F10D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE886CA-8855-480F-8A13-326458F10D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5B45F-BE67-456D-B987-E2F61DB4302E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5B45F-BE67-456D-B987-E2F61DB4302E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D7E3C5-258F-4BF2-9259-E413776F6FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D7E3C5-258F-4BF2-9259-E413776F6FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C31619-E2A4-4AFB-A0D6-420BBE84D8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C31619-E2A4-4AFB-A0D6-420BBE84D8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480109CD-18C1-4C4D-92FE-882310613055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480109CD-18C1-4C4D-92FE-882310613055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523ADEBB-9A99-466F-B0AD-E3397239C891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523ADEBB-9A99-466F-B0AD-E3397239C891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA340B2-7EAF-42DF-8DFA-23F677DF4566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2030.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA340B2-7EAF-42DF-8DFA-23F677DF4566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2EEA73-2FAB-4C6E-96BC-D6F76B0715BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
